--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.055299999999999</v>
+        <v>8.480300000000002</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.98949999999999</v>
+        <v>-21.8559</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.267799999999997</v>
+        <v>-7.375799999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.270700000000001</v>
+        <v>-7.302900000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.9319</v>
+        <v>-21.897</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.17329999999998</v>
+        <v>-20.22179999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.33359999999998</v>
+        <v>-20.08229999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.459000000000004</v>
+        <v>-7.3143</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.7825</v>
+        <v>-21.81089999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5.663700000000003</v>
+        <v>5.545600000000003</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.178800000000001</v>
+        <v>-8.431899999999994</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.14859999999997</v>
+        <v>-21.08769999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.236500000000003</v>
+        <v>6.014700000000006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.70199999999998</v>
+        <v>-20.67059999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.732200000000002</v>
+        <v>5.610300000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.535100000000002</v>
+        <v>9.659200000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.227100000000002</v>
+        <v>5.204800000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.188400000000001</v>
+        <v>-8.179200000000002</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.162499999999998</v>
+        <v>5.787400000000002</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.231300000000001</v>
+        <v>5.276700000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.36490000000002</v>
+        <v>-22.24240000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.025800000000001</v>
+        <v>-6.260299999999998</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.922399999999995</v>
+        <v>6.025399999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.2378</v>
+        <v>5.206099999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.14259999999999</v>
+        <v>-22.47620000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.453599999999997</v>
+        <v>4.886499999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.779399999999998</v>
+        <v>-8.670400000000006</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.32460000000001</v>
+        <v>-22.38650000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.797699999999999</v>
+        <v>-7.847299999999999</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-8.063900000000002</v>
+        <v>-8.031299999999996</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63299999999999</v>
+        <v>-21.63049999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.367299999999996</v>
+        <v>-7.292999999999994</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.738600000000002</v>
+        <v>8.315399999999993</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.52960000000001</v>
+        <v>-20.51260000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.87529999999999</v>
+        <v>-22.00290000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.421799999999996</v>
+        <v>-7.510199999999997</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.779099999999993</v>
+        <v>4.569599999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.856200000000004</v>
+        <v>5.532700000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.4419</v>
+        <v>-21.4835</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.795899999999994</v>
+        <v>4.758499999999994</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.99259999999999</v>
+        <v>-20.74449999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.545700000000002</v>
+        <v>-8.367899999999999</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.209299999999999</v>
+        <v>-8.133500000000003</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.678799999999999</v>
+        <v>-7.596099999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
